--- a/biology/Zoologie/Bolitoglossa_anthracina/Bolitoglossa_anthracina.xlsx
+++ b/biology/Zoologie/Bolitoglossa_anthracina/Bolitoglossa_anthracina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa anthracina est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa anthracina est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Bocas del Toro au Panama. Elle se rencontre entre 1 100 et 1 450 m d'altitude sur le Cerro Pando[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Bocas del Toro au Panama. Elle se rencontre entre 1 100 et 1 450 m d'altitude sur le Cerro Pando.
 Sa présence au Costa Rica est incertaine. 
-Elle n'est connue que par les trois spécimens collectés[2].
+Elle n'est connue que par les trois spécimens collectés.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du grec anthrakinos, « noir charbon », lui a été donné en référence à sa couleur.
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brame, Savage, Wake &amp; Hanken, 2001 : New species of large black salamander, Bolitoglossa (Plethodontidae) from western Panama. Copeia, vol. 2001, p. 700-704.</t>
         </is>
